--- a/examples/blank_template.xlsx
+++ b/examples/blank_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BragliaL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EC8669-E82F-4F84-A27D-4FCDDF860BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C177C9EF-B05B-4153-A35C-970550463696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="3150" windowWidth="15585" windowHeight="9240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scheda1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>variabile</t>
   </si>
@@ -88,9 +88,6 @@
     <t>sesso</t>
   </si>
   <si>
-    <t>si/no</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>modalita</t>
   </si>
   <si>
-    <t>unique_list_name</t>
-  </si>
-  <si>
     <t>Sì</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>Femmina</t>
   </si>
   <si>
-    <t>titolo studio</t>
-  </si>
-  <si>
     <t>elementare</t>
   </si>
   <si>
@@ -212,6 +203,12 @@
   </si>
   <si>
     <t>&lt;=</t>
+  </si>
+  <si>
+    <t>sino</t>
+  </si>
+  <si>
+    <t>titstu</t>
   </si>
 </sst>
 </file>
@@ -718,7 +715,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,24 +814,12 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{97DD540D-FCAA-4BC2-80FF-47F12D4D60F1}">
           <x14:formula1>
             <xm:f>modalita_struttura!$B$3:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{9F3857C7-E016-4628-98EE-A39532ED445F}">
-          <x14:formula1>
-            <xm:f>modalita_output!$G$2:$G$1048576</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3:C1000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AFE1CFC6-8631-488A-9AED-CCBB0EEA4294}">
-          <x14:formula1>
-            <xm:f>modalita_output!$G$2:$G$1048576</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9FED6ED5-5526-4A97-8C58-9C48EACCCF8B}">
           <x14:formula1>
@@ -850,11 +835,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,195 +847,172 @@
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
-      <c r="G1" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="G2" s="4" t="str">
-        <f t="array" ref="G2:G7">_xlfn.UNIQUE(_xlfn._xlws.FILTER(A2:A1048576, A2:A1048576 &lt;&gt; ""))</f>
-        <v>si/no</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
-      <c r="G3" s="4" t="str">
-        <v>sesso</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="str">
-        <v>titolo studio</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="str">
-        <v>time</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="str">
-        <v>sf12_1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="str">
-        <v>sf12_2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
         <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1080,16 +1042,16 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -1100,10 +1062,10 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -1111,13 +1073,13 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1125,34 +1087,34 @@
         <v>15</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -1164,7 +1126,7 @@
     </row>
     <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">

--- a/examples/blank_template.xlsx
+++ b/examples/blank_template.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BragliaL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C177C9EF-B05B-4153-A35C-970550463696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67AB04D-390E-440A-B95F-35127C076FCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="3150" windowWidth="15585" windowHeight="9240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="3000" windowWidth="18720" windowHeight="9075" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scheda1" sheetId="1" r:id="rId1"/>
     <sheet name="modalita_output" sheetId="2" r:id="rId2"/>
-    <sheet name="modalita_struttura" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>variabile</t>
   </si>
@@ -64,36 +63,12 @@
     <t>input_messaggio</t>
   </si>
   <si>
-    <t>errore_titolo</t>
-  </si>
-  <si>
     <t>errore_messaggio</t>
   </si>
   <si>
-    <t>intero</t>
-  </si>
-  <si>
-    <t>&gt;=</t>
-  </si>
-  <si>
-    <t>decimale</t>
-  </si>
-  <si>
-    <t>tra</t>
-  </si>
-  <si>
-    <t>elenco</t>
-  </si>
-  <si>
     <t>sesso</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>testo</t>
-  </si>
-  <si>
     <t>modalita</t>
   </si>
   <si>
@@ -109,18 +84,6 @@
     <t>Femmina</t>
   </si>
   <si>
-    <t>elementare</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>superiore</t>
-  </si>
-  <si>
-    <t>università</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -133,89 +96,14 @@
     <t>T2</t>
   </si>
   <si>
-    <t>sf12_1</t>
-  </si>
-  <si>
-    <t>Eccellente</t>
-  </si>
-  <si>
-    <t>Molto buona</t>
-  </si>
-  <si>
-    <t>Buona</t>
-  </si>
-  <si>
-    <t>Passabile</t>
-  </si>
-  <si>
-    <t>Scadente</t>
-  </si>
-  <si>
-    <t>sf12_2</t>
-  </si>
-  <si>
-    <t>Sì parecchio</t>
-  </si>
-  <si>
-    <t>Sì parzialmente</t>
-  </si>
-  <si>
-    <t>No per nulla</t>
-  </si>
-  <si>
-    <t>validate</t>
-  </si>
-  <si>
-    <t>criteria</t>
-  </si>
-  <si>
-    <t>Sì/No</t>
-  </si>
-  <si>
-    <t>error type</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>non compreso tra</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>==</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>!=</t>
-  </si>
-  <si>
-    <t>ora</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
-  </si>
-  <si>
     <t>sino</t>
-  </si>
-  <si>
-    <t>titstu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -231,22 +119,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,18 +129,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -283,26 +151,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -317,18 +170,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -711,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1001"/>
+  <dimension ref="A1:J1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -728,12 +574,11 @@
     <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="43.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="44.85546875" customWidth="1"/>
-    <col min="1019" max="1024" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="44.85546875" customWidth="1"/>
+    <col min="1018" max="1023" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -764,82 +609,68 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="D2" s="4"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="D3" s="4"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="D4" s="4"/>
       <c r="H4" s="1"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="D5" s="4"/>
       <c r="H5" s="1"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="1001" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1001" s="12"/>
-      <c r="B1001" s="12"/>
-      <c r="C1001" s="12"/>
-      <c r="D1001" s="12"/>
-      <c r="E1001" s="12"/>
-      <c r="F1001" s="12"/>
-      <c r="G1001" s="12"/>
-      <c r="H1001" s="12"/>
-      <c r="I1001" s="12"/>
-      <c r="J1001" s="12"/>
-      <c r="K1001" s="12"/>
+    <row r="1001" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1001" s="9"/>
+      <c r="B1001" s="9"/>
+      <c r="C1001" s="9"/>
+      <c r="D1001" s="9"/>
+      <c r="E1001" s="9"/>
+      <c r="F1001" s="9"/>
+      <c r="G1001" s="9"/>
+      <c r="H1001" s="9"/>
+      <c r="I1001" s="9"/>
+      <c r="J1001" s="9"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1001" xr:uid="{67BD8087-4961-463F-A94E-7F5FBA3EB62E}">
+      <formula1>"intero,decimale,elenco,data,ora,testo"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1001" xr:uid="{4FED249A-B149-484D-92C0-9377828799FC}">
+      <formula1>"tra,non compreso tra,==,!=,&gt;,&lt;,&gt;=,&lt;="</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{97DD540D-FCAA-4BC2-80FF-47F12D4D60F1}">
-          <x14:formula1>
-            <xm:f>modalita_struttura!$B$3:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B1000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9FED6ED5-5526-4A97-8C58-9C48EACCCF8B}">
-          <x14:formula1>
-            <xm:f>modalita_struttura!$D$3:$D$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D1000</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,295 +685,70 @@
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="A3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:H15"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="2.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="D9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="10"/>
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
